--- a/Fortran/MELTSPREAD3.0/SPREADTEST15/plot/plotmeltloc.xlsx
+++ b/Fortran/MELTSPREAD3.0/SPREADTEST15/plot/plotmeltloc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksn50\Desktop\code\Fortran\MELTSPREAD3.0\SPREADTEST15\plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2964F7-E45E-49BD-B46A-52749BF5EBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BD4CE7-C953-4C6B-8E2F-CE1CAA0015CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -702,90 +702,6 @@
                 <c:pt idx="8">
                   <c:v>14.4</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>28.8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>33.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>35.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>36.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>38.4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>41.6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44.8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>46.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>49.6</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>52.8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>54.4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>57.6</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>59.2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -821,90 +737,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>298.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>298.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>298.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>298.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>298.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>298.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>298.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>298.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>298.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>298.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>298.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>298.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>298.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>298.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>298.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>298.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>298.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>298</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1136,90 +968,6 @@
                 <c:pt idx="8">
                   <c:v>14.4</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>28.8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>33.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>35.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>36.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>38.4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>41.6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44.8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>46.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>49.6</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>52.8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>54.4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>57.6</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>59.2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1230,7 +978,7 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9998"/>
                 <c:pt idx="0">
-                  <c:v>0.11785</c:v>
+                  <c:v>0.11307</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.22758</c:v>
@@ -1239,106 +987,22 @@
                   <c:v>0.41321000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57369000000000003</c:v>
+                  <c:v>0.59931000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.70848999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70848999999999995</c:v>
+                  <c:v>0.73746999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70848999999999995</c:v>
+                  <c:v>0.73746999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70848999999999995</c:v>
+                  <c:v>0.73746999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.70848999999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.70848999999999995</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.70848999999999995</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.70848999999999995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.70848999999999995</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.70848999999999995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.70848999999999995</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.70848999999999995</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.70848999999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.70848999999999995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.70848999999999995</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.70848999999999995</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.70848999999999995</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.70848999999999995</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.70848999999999995</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.70848999999999995</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.70848999999999995</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.0853999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.0853999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.0853999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.0853999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.0853999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.0853999999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.0853999999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.0853999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.0853999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.0853999999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.0853999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.0853999999999999</c:v>
+                  <c:v>0.73746999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1578,90 +1242,6 @@
                 <c:pt idx="8">
                   <c:v>14.4</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>19.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20.8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>27.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>28.8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>33.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>35.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>36.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>38.4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>41.6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43.2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44.8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>46.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>49.6</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>51.2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>52.8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>54.4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>57.6</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>59.2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1672,7 +1252,7 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9998"/>
                 <c:pt idx="0">
-                  <c:v>0.32828000000000002</c:v>
+                  <c:v>0.31107000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.53483999999999998</c:v>
@@ -1681,106 +1261,22 @@
                   <c:v>0.72418000000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84467000000000003</c:v>
+                  <c:v>0.86189000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.93074000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93074000000000001</c:v>
+                  <c:v>0.94794999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93074000000000001</c:v>
+                  <c:v>0.94794999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.93074000000000001</c:v>
+                  <c:v>0.94794999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.93074000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.93074000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.93074000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.93074000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.93074000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.93074000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.93074000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.93074000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.93074000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.93074000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.93074000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.93074000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.93074000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.93074000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.93074000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.93074000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.93074000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.0224000000000002</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.0224000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.0224000000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.0224000000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.0224000000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.0224000000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.0224000000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.0224000000000002</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.0224000000000002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.0224000000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.0224000000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.0224000000000002</c:v>
+                  <c:v>0.94794999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2335,10 +1831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K1252"/>
+  <dimension ref="A1:Q1252"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2348,7 +1844,7 @@
     <col min="4" max="4" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2362,7 +1858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2376,15 +1872,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1.6</v>
       </c>
       <c r="B3" s="1">
-        <v>0.32828000000000002</v>
+        <v>0.31107000000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>0.11785</v>
+        <v>0.11307</v>
       </c>
       <c r="D3" s="1">
         <v>298.14999999999998</v>
@@ -2401,8 +1897,20 @@
       <c r="K3" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N3" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.31107000000000001</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.11307</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3.2</v>
       </c>
@@ -2427,8 +1935,20 @@
       <c r="K4" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N4" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.53483999999999998</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.22758</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4.8</v>
       </c>
@@ -2453,16 +1973,28 @@
       <c r="K5" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N5" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.72418000000000005</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.41321000000000002</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6.4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.84467000000000003</v>
+        <v>0.86189000000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>0.57369000000000003</v>
+        <v>0.59931000000000001</v>
       </c>
       <c r="D6" s="1">
         <v>298.14999999999998</v>
@@ -2479,8 +2011,20 @@
       <c r="K6" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N6" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.86189000000000004</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.59931000000000001</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -2505,16 +2049,28 @@
       <c r="K7" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N7" s="1">
+        <v>8</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.93074000000000001</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.70848999999999995</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>9.6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.93074000000000001</v>
+        <v>0.94794999999999996</v>
       </c>
       <c r="C8" s="1">
-        <v>0.70848999999999995</v>
+        <v>0.73746999999999996</v>
       </c>
       <c r="D8" s="1">
         <v>298.14999999999998</v>
@@ -2531,16 +2087,28 @@
       <c r="K8" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N8" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>11.2</v>
       </c>
       <c r="B9" s="1">
-        <v>0.93074000000000001</v>
+        <v>0.94794999999999996</v>
       </c>
       <c r="C9" s="1">
-        <v>0.70848999999999995</v>
+        <v>0.73746999999999996</v>
       </c>
       <c r="D9" s="1">
         <v>298.14999999999998</v>
@@ -2557,16 +2125,28 @@
       <c r="K9" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N9" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>12.8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.93074000000000001</v>
+        <v>0.94794999999999996</v>
       </c>
       <c r="C10" s="1">
-        <v>0.70848999999999995</v>
+        <v>0.73746999999999996</v>
       </c>
       <c r="D10" s="1">
         <v>298.14999999999998</v>
@@ -2583,16 +2163,28 @@
       <c r="K10" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N10" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>14.4</v>
       </c>
       <c r="B11" s="1">
-        <v>0.93074000000000001</v>
+        <v>0.94794999999999996</v>
       </c>
       <c r="C11" s="1">
-        <v>0.70848999999999995</v>
+        <v>0.73746999999999996</v>
       </c>
       <c r="D11" s="1">
         <v>298.14999999999998</v>
@@ -2609,20 +2201,24 @@
       <c r="K11" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.93074000000000001</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.70848999999999995</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="N11" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="Q11" s="1">
         <v>298.14999999999998</v>
       </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="H12" s="1">
         <v>16</v>
       </c>
@@ -2635,20 +2231,24 @@
       <c r="K12" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.93074000000000001</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.70848999999999995</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="N12" s="1">
+        <v>16</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="Q12" s="1">
         <v>298.14999999999998</v>
       </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="H13" s="1">
         <v>17.600000000000001</v>
       </c>
@@ -2661,20 +2261,24 @@
       <c r="K13" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>19.2</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.93074000000000001</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.70848999999999995</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="N13" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="Q13" s="1">
         <v>298.14999999999998</v>
       </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="H14" s="1">
         <v>19.2</v>
       </c>
@@ -2687,20 +2291,24 @@
       <c r="K14" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>20.8</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.93074000000000001</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.70848999999999995</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="N14" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="Q14" s="1">
         <v>298.14999999999998</v>
       </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="H15" s="1">
         <v>20.8</v>
       </c>
@@ -2713,20 +2321,24 @@
       <c r="K15" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>22.4</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.93074000000000001</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.70848999999999995</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="N15" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="Q15" s="1">
         <v>298.14999999999998</v>
       </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="H16" s="1">
         <v>22.4</v>
       </c>
@@ -2739,20 +2351,24 @@
       <c r="K16" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.93074000000000001</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.70848999999999995</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="N16" s="1">
+        <v>22.4</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="Q16" s="1">
         <v>298.14999999999998</v>
       </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="H17" s="1">
         <v>24</v>
       </c>
@@ -2765,20 +2381,24 @@
       <c r="K17" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>25.6</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.93074000000000001</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.70848999999999995</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="N17" s="1">
+        <v>24</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="Q17" s="1">
         <v>298.14999999999998</v>
       </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="H18" s="1">
         <v>25.6</v>
       </c>
@@ -2791,20 +2411,24 @@
       <c r="K18" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>27.2</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.93074000000000001</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.70848999999999995</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="N18" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="Q18" s="1">
         <v>298.14999999999998</v>
       </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="H19" s="1">
         <v>27.2</v>
       </c>
@@ -2817,20 +2441,24 @@
       <c r="K19" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>28.8</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.93074000000000001</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.70848999999999995</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="N19" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="Q19" s="1">
         <v>298.14999999999998</v>
       </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="H20" s="1">
         <v>28.8</v>
       </c>
@@ -2843,20 +2471,24 @@
       <c r="K20" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>30.4</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.93074000000000001</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.70848999999999995</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="N20" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="Q20" s="1">
         <v>298.14999999999998</v>
       </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="H21" s="1">
         <v>30.4</v>
       </c>
@@ -2869,20 +2501,24 @@
       <c r="K21" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>32</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.93074000000000001</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.70848999999999995</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="N21" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="Q21" s="1">
         <v>298.14999999999998</v>
       </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="H22" s="1">
         <v>32</v>
       </c>
@@ -2895,20 +2531,24 @@
       <c r="K22" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>33.6</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.93074000000000001</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.70848999999999995</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="N22" s="1">
+        <v>32</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="Q22" s="1">
         <v>298.14999999999998</v>
       </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
       <c r="H23" s="1">
         <v>33.6</v>
       </c>
@@ -2921,20 +2561,24 @@
       <c r="K23" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.93074000000000001</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.70848999999999995</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="N23" s="1">
+        <v>33.6</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="Q23" s="1">
         <v>298.14999999999998</v>
       </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
       <c r="H24" s="1">
         <v>35.200000000000003</v>
       </c>
@@ -2947,20 +2591,24 @@
       <c r="K24" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>36.799999999999997</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.93074000000000001</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.70848999999999995</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="N24" s="1">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="Q24" s="1">
         <v>298.14999999999998</v>
       </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
       <c r="H25" s="1">
         <v>36.799999999999997</v>
       </c>
@@ -2973,20 +2621,24 @@
       <c r="K25" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>38.4</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.93074000000000001</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.70848999999999995</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="N25" s="1">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="Q25" s="1">
         <v>298.14999999999998</v>
       </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="H26" s="1">
         <v>38.4</v>
       </c>
@@ -2999,20 +2651,24 @@
       <c r="K26" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>40</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.93074000000000001</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.70848999999999995</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="N26" s="1">
+        <v>38.4</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="Q26" s="1">
         <v>298.14999999999998</v>
       </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
       <c r="H27" s="1">
         <v>40</v>
       </c>
@@ -3025,20 +2681,24 @@
       <c r="K27" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>41.6</v>
-      </c>
-      <c r="B28" s="1">
-        <v>3.0224000000000002</v>
-      </c>
-      <c r="C28" s="1">
-        <v>5.0853999999999999</v>
-      </c>
-      <c r="D28" s="1">
-        <v>298</v>
-      </c>
+      <c r="N27" s="1">
+        <v>40</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
       <c r="H28" s="1">
         <v>41.6</v>
       </c>
@@ -3051,20 +2711,24 @@
       <c r="K28" s="1">
         <v>298</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>43.2</v>
-      </c>
-      <c r="B29" s="1">
+      <c r="N28" s="1">
+        <v>41.6</v>
+      </c>
+      <c r="O28" s="1">
         <v>3.0224000000000002</v>
       </c>
-      <c r="C29" s="1">
+      <c r="P28" s="1">
         <v>5.0853999999999999</v>
       </c>
-      <c r="D29" s="1">
-        <v>298</v>
-      </c>
+      <c r="Q28" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
       <c r="H29" s="1">
         <v>43.2</v>
       </c>
@@ -3077,20 +2741,24 @@
       <c r="K29" s="1">
         <v>298</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>44.8</v>
-      </c>
-      <c r="B30" s="1">
+      <c r="N29" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="O29" s="1">
         <v>3.0224000000000002</v>
       </c>
-      <c r="C30" s="1">
+      <c r="P29" s="1">
         <v>5.0853999999999999</v>
       </c>
-      <c r="D30" s="1">
-        <v>298</v>
-      </c>
+      <c r="Q29" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="H30" s="1">
         <v>44.8</v>
       </c>
@@ -3103,20 +2771,24 @@
       <c r="K30" s="1">
         <v>298</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>46.4</v>
-      </c>
-      <c r="B31" s="1">
+      <c r="N30" s="1">
+        <v>44.8</v>
+      </c>
+      <c r="O30" s="1">
         <v>3.0224000000000002</v>
       </c>
-      <c r="C31" s="1">
+      <c r="P30" s="1">
         <v>5.0853999999999999</v>
       </c>
-      <c r="D31" s="1">
-        <v>298</v>
-      </c>
+      <c r="Q30" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="H31" s="1">
         <v>46.4</v>
       </c>
@@ -3129,20 +2801,24 @@
       <c r="K31" s="1">
         <v>298</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>48</v>
-      </c>
-      <c r="B32" s="1">
+      <c r="N31" s="1">
+        <v>46.4</v>
+      </c>
+      <c r="O31" s="1">
         <v>3.0224000000000002</v>
       </c>
-      <c r="C32" s="1">
+      <c r="P31" s="1">
         <v>5.0853999999999999</v>
       </c>
-      <c r="D32" s="1">
-        <v>298</v>
-      </c>
+      <c r="Q31" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
       <c r="H32" s="1">
         <v>48</v>
       </c>
@@ -3155,20 +2831,24 @@
       <c r="K32" s="1">
         <v>298</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>49.6</v>
-      </c>
-      <c r="B33" s="1">
+      <c r="N32" s="1">
+        <v>48</v>
+      </c>
+      <c r="O32" s="1">
         <v>3.0224000000000002</v>
       </c>
-      <c r="C33" s="1">
+      <c r="P32" s="1">
         <v>5.0853999999999999</v>
       </c>
-      <c r="D33" s="1">
-        <v>298</v>
-      </c>
+      <c r="Q32" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
       <c r="H33" s="1">
         <v>49.6</v>
       </c>
@@ -3181,20 +2861,24 @@
       <c r="K33" s="1">
         <v>298</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>51.2</v>
-      </c>
-      <c r="B34" s="1">
+      <c r="N33" s="1">
+        <v>49.6</v>
+      </c>
+      <c r="O33" s="1">
         <v>3.0224000000000002</v>
       </c>
-      <c r="C34" s="1">
+      <c r="P33" s="1">
         <v>5.0853999999999999</v>
       </c>
-      <c r="D34" s="1">
-        <v>298</v>
-      </c>
+      <c r="Q33" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
       <c r="H34" s="1">
         <v>51.2</v>
       </c>
@@ -3207,20 +2891,24 @@
       <c r="K34" s="1">
         <v>298</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>52.8</v>
-      </c>
-      <c r="B35" s="1">
+      <c r="N34" s="1">
+        <v>51.2</v>
+      </c>
+      <c r="O34" s="1">
         <v>3.0224000000000002</v>
       </c>
-      <c r="C35" s="1">
+      <c r="P34" s="1">
         <v>5.0853999999999999</v>
       </c>
-      <c r="D35" s="1">
-        <v>298</v>
-      </c>
+      <c r="Q34" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
       <c r="H35" s="1">
         <v>52.8</v>
       </c>
@@ -3233,20 +2921,24 @@
       <c r="K35" s="1">
         <v>298</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>54.4</v>
-      </c>
-      <c r="B36" s="1">
+      <c r="N35" s="1">
+        <v>52.8</v>
+      </c>
+      <c r="O35" s="1">
         <v>3.0224000000000002</v>
       </c>
-      <c r="C36" s="1">
+      <c r="P35" s="1">
         <v>5.0853999999999999</v>
       </c>
-      <c r="D36" s="1">
-        <v>298</v>
-      </c>
+      <c r="Q35" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
       <c r="H36" s="1">
         <v>54.4</v>
       </c>
@@ -3259,20 +2951,24 @@
       <c r="K36" s="1">
         <v>298</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>56</v>
-      </c>
-      <c r="B37" s="1">
+      <c r="N36" s="1">
+        <v>54.4</v>
+      </c>
+      <c r="O36" s="1">
         <v>3.0224000000000002</v>
       </c>
-      <c r="C37" s="1">
+      <c r="P36" s="1">
         <v>5.0853999999999999</v>
       </c>
-      <c r="D37" s="1">
-        <v>298</v>
-      </c>
+      <c r="Q36" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
       <c r="H37" s="1">
         <v>56</v>
       </c>
@@ -3285,20 +2981,24 @@
       <c r="K37" s="1">
         <v>298</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>57.6</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="N37" s="1">
+        <v>56</v>
+      </c>
+      <c r="O37" s="1">
         <v>3.0224000000000002</v>
       </c>
-      <c r="C38" s="1">
+      <c r="P37" s="1">
         <v>5.0853999999999999</v>
       </c>
-      <c r="D38" s="1">
-        <v>298</v>
-      </c>
+      <c r="Q37" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
       <c r="H38" s="1">
         <v>57.6</v>
       </c>
@@ -3311,20 +3011,24 @@
       <c r="K38" s="1">
         <v>298</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>59.2</v>
-      </c>
-      <c r="B39" s="1">
+      <c r="N38" s="1">
+        <v>57.6</v>
+      </c>
+      <c r="O38" s="1">
         <v>3.0224000000000002</v>
       </c>
-      <c r="C39" s="1">
+      <c r="P38" s="1">
         <v>5.0853999999999999</v>
       </c>
-      <c r="D39" s="1">
-        <v>298</v>
-      </c>
+      <c r="Q38" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
       <c r="H39" s="1">
         <v>59.2</v>
       </c>
@@ -3337,56 +3041,68 @@
       <c r="K39" s="1">
         <v>298</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N39" s="1">
+        <v>59.2</v>
+      </c>
+      <c r="O39" s="1">
+        <v>3.0224000000000002</v>
+      </c>
+      <c r="P39" s="1">
+        <v>5.0853999999999999</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>

--- a/Fortran/MELTSPREAD3.0/SPREADTEST15/plot/plotmeltloc.xlsx
+++ b/Fortran/MELTSPREAD3.0/SPREADTEST15/plot/plotmeltloc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksn50\Desktop\code\Fortran\MELTSPREAD3.0\SPREADTEST15\plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BD4CE7-C953-4C6B-8E2F-CE1CAA0015CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D526ABAD-D808-465D-9A5D-C18473EDE6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Peak Shell Temp" sheetId="4" r:id="rId1"/>
@@ -702,6 +702,9 @@
                 <c:pt idx="8">
                   <c:v>14.4</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -736,6 +739,9 @@
                   <c:v>298.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>298.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>298.14999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -968,6 +974,9 @@
                 <c:pt idx="8">
                   <c:v>14.4</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1002,6 +1011,9 @@
                   <c:v>0.73746999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.73746999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.73746999999999996</c:v>
                 </c:pt>
               </c:numCache>
@@ -1206,9 +1218,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>meltloc!$A$3:$A$10000</c:f>
@@ -1241,6 +1250,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1276,6 +1288,9 @@
                   <c:v>0.94794999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.94794999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.94794999999999996</c:v>
                 </c:pt>
               </c:numCache>
@@ -1438,7 +1453,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1831,10 +1846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q1252"/>
+  <dimension ref="A1:W1252"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1844,7 +1859,7 @@
     <col min="4" max="4" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1858,7 +1873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1872,7 +1887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1.6</v>
       </c>
@@ -1909,8 +1924,20 @@
       <c r="Q3" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T3" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.31107000000000001</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.11307</v>
+      </c>
+      <c r="W3" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3.2</v>
       </c>
@@ -1947,8 +1974,20 @@
       <c r="Q4" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T4" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.53483999999999998</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.22758</v>
+      </c>
+      <c r="W4" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4.8</v>
       </c>
@@ -1985,8 +2024,20 @@
       <c r="Q5" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T5" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.72418000000000005</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.41321000000000002</v>
+      </c>
+      <c r="W5" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6.4</v>
       </c>
@@ -2023,8 +2074,20 @@
       <c r="Q6" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T6" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0.86189000000000004</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.59931000000000001</v>
+      </c>
+      <c r="W6" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -2061,8 +2124,20 @@
       <c r="Q7" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T7" s="1">
+        <v>8</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0.93074000000000001</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0.70848999999999995</v>
+      </c>
+      <c r="W7" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>9.6</v>
       </c>
@@ -2099,8 +2174,20 @@
       <c r="Q8" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T8" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="W8" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>11.2</v>
       </c>
@@ -2137,8 +2224,20 @@
       <c r="Q9" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T9" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="W9" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>12.8</v>
       </c>
@@ -2175,8 +2274,20 @@
       <c r="Q10" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T10" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="W10" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>14.4</v>
       </c>
@@ -2213,12 +2324,32 @@
       <c r="Q11" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="T11" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="W11" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="D12" s="1">
+        <v>298.14999999999998</v>
+      </c>
       <c r="H12" s="1">
         <v>16</v>
       </c>
@@ -2243,8 +2374,20 @@
       <c r="Q12" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T12" s="1">
+        <v>16</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="W12" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2273,8 +2416,20 @@
       <c r="Q13" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T13" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="W13" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2303,8 +2458,20 @@
       <c r="Q14" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T14" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="W14" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2333,8 +2500,20 @@
       <c r="Q15" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T15" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="W15" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2363,8 +2542,20 @@
       <c r="Q16" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T16" s="1">
+        <v>22.4</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="W16" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2393,8 +2584,20 @@
       <c r="Q17" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T17" s="1">
+        <v>24</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="W17" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2423,8 +2626,20 @@
       <c r="Q18" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T18" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="W18" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2453,8 +2668,20 @@
       <c r="Q19" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T19" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="W19" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2483,8 +2710,20 @@
       <c r="Q20" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T20" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="W20" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2513,8 +2752,20 @@
       <c r="Q21" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T21" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="W21" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2543,8 +2794,20 @@
       <c r="Q22" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T22" s="1">
+        <v>32</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="W22" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2573,8 +2836,20 @@
       <c r="Q23" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T23" s="1">
+        <v>33.6</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="W23" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2603,8 +2878,20 @@
       <c r="Q24" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T24" s="1">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="W24" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2633,8 +2920,20 @@
       <c r="Q25" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T25" s="1">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="W25" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2663,8 +2962,20 @@
       <c r="Q26" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T26" s="1">
+        <v>38.4</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="W26" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2693,8 +3004,20 @@
       <c r="Q27" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T27" s="1">
+        <v>40</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0.94794999999999996</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0.73746999999999996</v>
+      </c>
+      <c r="W27" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2723,8 +3046,20 @@
       <c r="Q28" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T28" s="1">
+        <v>41.6</v>
+      </c>
+      <c r="U28" s="1">
+        <v>3.0224000000000002</v>
+      </c>
+      <c r="V28" s="1">
+        <v>5.0853999999999999</v>
+      </c>
+      <c r="W28" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2753,8 +3088,20 @@
       <c r="Q29" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T29" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="U29" s="1">
+        <v>3.0224000000000002</v>
+      </c>
+      <c r="V29" s="1">
+        <v>5.0853999999999999</v>
+      </c>
+      <c r="W29" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2783,8 +3130,20 @@
       <c r="Q30" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T30" s="1">
+        <v>44.8</v>
+      </c>
+      <c r="U30" s="1">
+        <v>3.0224000000000002</v>
+      </c>
+      <c r="V30" s="1">
+        <v>5.0853999999999999</v>
+      </c>
+      <c r="W30" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2813,8 +3172,20 @@
       <c r="Q31" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T31" s="1">
+        <v>46.4</v>
+      </c>
+      <c r="U31" s="1">
+        <v>3.0224000000000002</v>
+      </c>
+      <c r="V31" s="1">
+        <v>5.0853999999999999</v>
+      </c>
+      <c r="W31" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2843,8 +3214,20 @@
       <c r="Q32" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T32" s="1">
+        <v>48</v>
+      </c>
+      <c r="U32" s="1">
+        <v>3.0224000000000002</v>
+      </c>
+      <c r="V32" s="1">
+        <v>5.0853999999999999</v>
+      </c>
+      <c r="W32" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2873,8 +3256,20 @@
       <c r="Q33" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T33" s="1">
+        <v>49.6</v>
+      </c>
+      <c r="U33" s="1">
+        <v>3.0224000000000002</v>
+      </c>
+      <c r="V33" s="1">
+        <v>5.0853999999999999</v>
+      </c>
+      <c r="W33" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2903,8 +3298,20 @@
       <c r="Q34" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T34" s="1">
+        <v>51.2</v>
+      </c>
+      <c r="U34" s="1">
+        <v>3.0224000000000002</v>
+      </c>
+      <c r="V34" s="1">
+        <v>5.0853999999999999</v>
+      </c>
+      <c r="W34" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2933,8 +3340,20 @@
       <c r="Q35" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T35" s="1">
+        <v>52.8</v>
+      </c>
+      <c r="U35" s="1">
+        <v>3.0224000000000002</v>
+      </c>
+      <c r="V35" s="1">
+        <v>5.0853999999999999</v>
+      </c>
+      <c r="W35" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2963,8 +3382,20 @@
       <c r="Q36" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T36" s="1">
+        <v>54.4</v>
+      </c>
+      <c r="U36" s="1">
+        <v>3.0224000000000002</v>
+      </c>
+      <c r="V36" s="1">
+        <v>5.0853999999999999</v>
+      </c>
+      <c r="W36" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2993,8 +3424,20 @@
       <c r="Q37" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T37" s="1">
+        <v>56</v>
+      </c>
+      <c r="U37" s="1">
+        <v>3.0224000000000002</v>
+      </c>
+      <c r="V37" s="1">
+        <v>5.0853999999999999</v>
+      </c>
+      <c r="W37" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3023,8 +3466,20 @@
       <c r="Q38" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T38" s="1">
+        <v>57.6</v>
+      </c>
+      <c r="U38" s="1">
+        <v>3.0224000000000002</v>
+      </c>
+      <c r="V38" s="1">
+        <v>5.0853999999999999</v>
+      </c>
+      <c r="W38" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3053,56 +3508,68 @@
       <c r="Q39" s="1">
         <v>298.14999999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T39" s="1">
+        <v>59.2</v>
+      </c>
+      <c r="U39" s="1">
+        <v>3.0224000000000002</v>
+      </c>
+      <c r="V39" s="1">
+        <v>5.0853999999999999</v>
+      </c>
+      <c r="W39" s="1">
+        <v>298.14999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
